--- a/dumps/Stocks/Ramco Systems Ltd.xlsx
+++ b/dumps/Stocks/Ramco Systems Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AG$71</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_5B06EF92_5423_40C9_AEE3_B56B76232BF0_.wvu.FilterData">'Trading History'!$A$4:$AR$150</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_A1F099E8_41C3_4654_B984_91E89119870D_.wvu.FilterData">'Trading History'!$A$4:$AR$150</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5B06EF92-5423-40C9-AEE3-B56B76232BF0}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A1F099E8-41C3-4654-B984-91E89119870D}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -764,8 +764,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:RAMCOSYS"", ""price"")"),520.0)</f>
-        <v>520</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:RAMCOSYS"", ""price"")"),564.9)</f>
+        <v>564.9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="C6" s="9">
         <f>sum('Trading History'!K4:K1003)</f>
-        <v>36868.78998</v>
+        <v>45848.78998</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="10" t="s">
@@ -896,7 +896,7 @@
       </c>
       <c r="I6" s="9">
         <f>sum('Trading History'!U4:U1003)</f>
-        <v>36868.78998</v>
+        <v>45848.78998</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="12" t="s">
@@ -974,7 +974,7 @@
       </c>
       <c r="C8" s="9">
         <f>sum('Trading History'!L4:L1003)</f>
-        <v>104000</v>
+        <v>112980</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10" t="s">
@@ -990,7 +990,7 @@
       </c>
       <c r="I8" s="9">
         <f>sum('Trading History'!V4:V1003)</f>
-        <v>104000</v>
+        <v>112980</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="12" t="s">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C9" s="14">
         <f>Index!C6/(Index!C7*Index!$C$2)</f>
-        <v>0.3545075959</v>
+        <v>0.4058133296</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="10" t="s">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I9" s="14">
         <f>IFERROR(Index!I6/(Index!I7*Index!$C$2), 0)</f>
-        <v>0.3545075959</v>
+        <v>0.4058133296</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="12" t="s">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C10" s="15">
         <f>AVERAGE('Trading History'!N4:N1003)</f>
-        <v>0.9019635442</v>
+        <v>1.10319212</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="10" t="s">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I10" s="15">
         <f>IFERROR(AVERAGE('Trading History'!X4:X1003), 0)</f>
-        <v>0.9019635441</v>
+        <v>1.10319212</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L10" s="15">
         <f>IFERROR(AVERAGE('Trading History'!AE4:AE1003), 0)</f>
-        <v>0.8591262522</v>
+        <v>0.8566251213</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C11" s="15">
         <f>AVERAGE('Trading History'!O4:O1003)</f>
-        <v>202.4407411</v>
+        <v>247.3407411</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="10" t="s">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="I11" s="15">
         <f>IFERROR(AVERAGE('Trading History'!Y4:Y1003), 0)</f>
-        <v>202.4407411</v>
+        <v>247.3407411</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="F5" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G5" s="44">
         <v>2143.57</v>
@@ -28315,11 +28315,11 @@
       </c>
       <c r="K5" s="44">
         <f t="shared" ref="K5:K36" si="1">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), (F5*D5)-(E5*D5), "")</f>
-        <v>2551.539996</v>
+        <v>2955.639996</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" ref="L5:L71" si="2">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), F5*D5, "")</f>
-        <v>4680</v>
+        <v>5084.1</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ref="M5:M71" si="3">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -28327,11 +28327,11 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" ref="N5:N71" si="4">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/(NOW()-A5),"")</f>
-        <v>2.304049477</v>
+        <v>2.656910388</v>
       </c>
       <c r="O5" s="48">
         <f t="shared" ref="O5:O36" si="5">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/D5,"")</f>
-        <v>283.504444</v>
+        <v>328.404444</v>
       </c>
       <c r="P5" s="44" t="str">
         <f t="shared" ref="P5:P36" si="6">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (F5*D5)-(E5*D5), "")</f>
@@ -28355,11 +28355,11 @@
       </c>
       <c r="U5" s="44">
         <f t="shared" ref="U5:U36" si="11">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (F5*D5)-(E5*D5), "")</f>
-        <v>2551.539996</v>
+        <v>2955.639996</v>
       </c>
       <c r="V5" s="51">
         <f t="shared" ref="V5:V36" si="12">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), F5*D5, "")</f>
-        <v>4680</v>
+        <v>5084.1</v>
       </c>
       <c r="W5" s="51">
         <f t="shared" ref="W5:W36" si="13">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
@@ -28367,11 +28367,11 @@
       </c>
       <c r="X5" s="52">
         <f t="shared" ref="X5:X36" si="14">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/(NOW()-A5),"")</f>
-        <v>2.304049477</v>
+        <v>2.656910388</v>
       </c>
       <c r="Y5" s="51">
         <f t="shared" ref="Y5:Y36" si="15">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/D5,"")</f>
-        <v>283.504444</v>
+        <v>328.404444</v>
       </c>
       <c r="Z5" s="44"/>
       <c r="AA5" s="44"/>
@@ -28408,7 +28408,7 @@
       </c>
       <c r="F6" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G6" s="44">
         <v>238.13</v>
@@ -28424,11 +28424,11 @@
       </c>
       <c r="K6" s="44">
         <f t="shared" si="1"/>
-        <v>283.55</v>
+        <v>328.45</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="3"/>
@@ -28436,11 +28436,11 @@
       </c>
       <c r="N6" s="45">
         <f t="shared" si="4"/>
-        <v>0.2560466346</v>
+        <v>0.295253217</v>
       </c>
       <c r="O6" s="48">
         <f t="shared" si="5"/>
-        <v>283.55</v>
+        <v>328.45</v>
       </c>
       <c r="P6" s="44" t="str">
         <f t="shared" si="6"/>
@@ -28464,11 +28464,11 @@
       </c>
       <c r="U6" s="44">
         <f t="shared" si="11"/>
-        <v>283.55</v>
+        <v>328.45</v>
       </c>
       <c r="V6" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W6" s="51">
         <f t="shared" si="13"/>
@@ -28476,11 +28476,11 @@
       </c>
       <c r="X6" s="52">
         <f t="shared" si="14"/>
-        <v>0.2560466346</v>
+        <v>0.2952532169</v>
       </c>
       <c r="Y6" s="51">
         <f t="shared" si="15"/>
-        <v>283.55</v>
+        <v>328.45</v>
       </c>
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
@@ -28517,7 +28517,7 @@
       </c>
       <c r="F7" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G7" s="44">
         <v>494.87</v>
@@ -28533,11 +28533,11 @@
       </c>
       <c r="K7" s="44">
         <f t="shared" si="1"/>
-        <v>548.59</v>
+        <v>638.39</v>
       </c>
       <c r="L7" s="46">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="3"/>
@@ -28545,11 +28545,11 @@
       </c>
       <c r="N7" s="45">
         <f t="shared" si="4"/>
-        <v>0.4940403147</v>
+        <v>0.5723238235</v>
       </c>
       <c r="O7" s="48">
         <f t="shared" si="5"/>
-        <v>274.295</v>
+        <v>319.195</v>
       </c>
       <c r="P7" s="44" t="str">
         <f t="shared" si="6"/>
@@ -28573,11 +28573,11 @@
       </c>
       <c r="U7" s="44">
         <f t="shared" si="11"/>
-        <v>548.59</v>
+        <v>638.39</v>
       </c>
       <c r="V7" s="51">
         <f t="shared" si="12"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="W7" s="51">
         <f t="shared" si="13"/>
@@ -28585,11 +28585,11 @@
       </c>
       <c r="X7" s="52">
         <f t="shared" si="14"/>
-        <v>0.4940403146</v>
+        <v>0.5723238234</v>
       </c>
       <c r="Y7" s="51">
         <f t="shared" si="15"/>
-        <v>274.295</v>
+        <v>319.195</v>
       </c>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="F8" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G8" s="44">
         <v>247.55</v>
@@ -28642,11 +28642,11 @@
       </c>
       <c r="K8" s="44">
         <f t="shared" si="1"/>
-        <v>274.2</v>
+        <v>319.1</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M8" s="47">
         <f t="shared" si="3"/>
@@ -28654,11 +28654,11 @@
       </c>
       <c r="N8" s="45">
         <f t="shared" si="4"/>
-        <v>0.2469346038</v>
+        <v>0.2860767432</v>
       </c>
       <c r="O8" s="48">
         <f t="shared" si="5"/>
-        <v>274.2</v>
+        <v>319.1</v>
       </c>
       <c r="P8" s="44" t="str">
         <f t="shared" si="6"/>
@@ -28682,11 +28682,11 @@
       </c>
       <c r="U8" s="44">
         <f t="shared" si="11"/>
-        <v>274.2</v>
+        <v>319.1</v>
       </c>
       <c r="V8" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W8" s="51">
         <f t="shared" si="13"/>
@@ -28694,11 +28694,11 @@
       </c>
       <c r="X8" s="52">
         <f t="shared" si="14"/>
-        <v>0.2469346038</v>
+        <v>0.2860767432</v>
       </c>
       <c r="Y8" s="51">
         <f t="shared" si="15"/>
-        <v>274.2</v>
+        <v>319.1</v>
       </c>
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
@@ -28735,7 +28735,7 @@
       </c>
       <c r="F9" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G9" s="44">
         <v>1732.43</v>
@@ -28751,11 +28751,11 @@
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
-        <v>1919.75</v>
+        <v>2234.05</v>
       </c>
       <c r="L9" s="46">
         <f t="shared" si="2"/>
-        <v>3640</v>
+        <v>3954.3</v>
       </c>
       <c r="M9" s="47">
         <f t="shared" si="3"/>
@@ -28763,11 +28763,11 @@
       </c>
       <c r="N9" s="45">
         <f t="shared" si="4"/>
-        <v>1.728857424</v>
+        <v>2.002850981</v>
       </c>
       <c r="O9" s="48">
         <f t="shared" si="5"/>
-        <v>274.25</v>
+        <v>319.15</v>
       </c>
       <c r="P9" s="44" t="str">
         <f t="shared" si="6"/>
@@ -28791,11 +28791,11 @@
       </c>
       <c r="U9" s="44">
         <f t="shared" si="11"/>
-        <v>1919.75</v>
+        <v>2234.05</v>
       </c>
       <c r="V9" s="51">
         <f t="shared" si="12"/>
-        <v>3640</v>
+        <v>3954.3</v>
       </c>
       <c r="W9" s="51">
         <f t="shared" si="13"/>
@@ -28803,11 +28803,11 @@
       </c>
       <c r="X9" s="52">
         <f t="shared" si="14"/>
-        <v>1.728857424</v>
+        <v>2.002850981</v>
       </c>
       <c r="Y9" s="51">
         <f t="shared" si="15"/>
-        <v>274.25</v>
+        <v>319.15</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F10" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G10" s="44">
         <v>2666.19</v>
@@ -28857,11 +28857,11 @@
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
-        <v>2552.49</v>
+        <v>3001.49</v>
       </c>
       <c r="L10" s="46">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="M10" s="47">
         <f t="shared" si="3"/>
@@ -28869,11 +28869,11 @@
       </c>
       <c r="N10" s="45">
         <f t="shared" si="4"/>
-        <v>2.220685299</v>
+        <v>2.599964579</v>
       </c>
       <c r="O10" s="48">
         <f t="shared" si="5"/>
-        <v>255.249</v>
+        <v>300.149</v>
       </c>
       <c r="P10" s="44" t="str">
         <f t="shared" si="6"/>
@@ -28897,11 +28897,11 @@
       </c>
       <c r="U10" s="44">
         <f t="shared" si="11"/>
-        <v>2552.49</v>
+        <v>3001.49</v>
       </c>
       <c r="V10" s="51">
         <f t="shared" si="12"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="W10" s="51">
         <f t="shared" si="13"/>
@@ -28909,11 +28909,11 @@
       </c>
       <c r="X10" s="52">
         <f t="shared" si="14"/>
-        <v>2.220685299</v>
+        <v>2.599964579</v>
       </c>
       <c r="Y10" s="51">
         <f t="shared" si="15"/>
-        <v>255.249</v>
+        <v>300.149</v>
       </c>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="F11" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G11" s="44">
         <v>2422.51</v>
@@ -28963,11 +28963,11 @@
       </c>
       <c r="K11" s="44">
         <f t="shared" si="1"/>
-        <v>2794.51</v>
+        <v>3243.51</v>
       </c>
       <c r="L11" s="46">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="M11" s="47">
         <f t="shared" si="3"/>
@@ -28975,11 +28975,11 @@
       </c>
       <c r="N11" s="45">
         <f t="shared" si="4"/>
-        <v>2.387622269</v>
+        <v>2.759412571</v>
       </c>
       <c r="O11" s="48">
         <f t="shared" si="5"/>
-        <v>279.451</v>
+        <v>324.351</v>
       </c>
       <c r="P11" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29003,11 +29003,11 @@
       </c>
       <c r="U11" s="44">
         <f t="shared" si="11"/>
-        <v>2794.51</v>
+        <v>3243.51</v>
       </c>
       <c r="V11" s="51">
         <f t="shared" si="12"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="W11" s="51">
         <f t="shared" si="13"/>
@@ -29015,11 +29015,11 @@
       </c>
       <c r="X11" s="52">
         <f t="shared" si="14"/>
-        <v>2.387622268</v>
+        <v>2.759412571</v>
       </c>
       <c r="Y11" s="51">
         <f t="shared" si="15"/>
-        <v>279.451</v>
+        <v>324.351</v>
       </c>
       <c r="Z11" s="44"/>
       <c r="AA11" s="44"/>
@@ -29053,7 +29053,7 @@
       </c>
       <c r="F12" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G12" s="44">
         <v>3412.35</v>
@@ -29069,11 +29069,11 @@
       </c>
       <c r="K12" s="44">
         <f t="shared" si="1"/>
-        <v>3371.530006</v>
+        <v>3955.230006</v>
       </c>
       <c r="L12" s="46">
         <f t="shared" si="2"/>
-        <v>6760</v>
+        <v>7343.7</v>
       </c>
       <c r="M12" s="47">
         <f t="shared" si="3"/>
@@ -29081,11 +29081,11 @@
       </c>
       <c r="N12" s="45">
         <f t="shared" si="4"/>
-        <v>2.79235287</v>
+        <v>3.262220361</v>
       </c>
       <c r="O12" s="48">
         <f t="shared" si="5"/>
-        <v>259.348462</v>
+        <v>304.248462</v>
       </c>
       <c r="P12" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29109,11 +29109,11 @@
       </c>
       <c r="U12" s="44">
         <f t="shared" si="11"/>
-        <v>3371.530006</v>
+        <v>3955.230006</v>
       </c>
       <c r="V12" s="51">
         <f t="shared" si="12"/>
-        <v>6760</v>
+        <v>7343.7</v>
       </c>
       <c r="W12" s="51">
         <f t="shared" si="13"/>
@@ -29121,11 +29121,11 @@
       </c>
       <c r="X12" s="52">
         <f t="shared" si="14"/>
-        <v>2.792352869</v>
+        <v>3.262220361</v>
       </c>
       <c r="Y12" s="51">
         <f t="shared" si="15"/>
-        <v>259.348462</v>
+        <v>304.248462</v>
       </c>
       <c r="Z12" s="44"/>
       <c r="AA12" s="44"/>
@@ -29159,7 +29159,7 @@
       </c>
       <c r="F13" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G13" s="44">
         <v>262.51</v>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="K13" s="44">
         <f t="shared" si="1"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M13" s="47">
         <f t="shared" si="3"/>
@@ -29187,11 +29187,11 @@
       </c>
       <c r="N13" s="45">
         <f t="shared" si="4"/>
-        <v>0.2147976484</v>
+        <v>0.2509412963</v>
       </c>
       <c r="O13" s="48">
         <f t="shared" si="5"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="P13" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29215,11 +29215,11 @@
       </c>
       <c r="U13" s="44">
         <f t="shared" si="11"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="V13" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W13" s="51">
         <f t="shared" si="13"/>
@@ -29227,11 +29227,11 @@
       </c>
       <c r="X13" s="52">
         <f t="shared" si="14"/>
-        <v>0.2147976484</v>
+        <v>0.2509412963</v>
       </c>
       <c r="Y13" s="51">
         <f t="shared" si="15"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
@@ -29265,7 +29265,7 @@
       </c>
       <c r="F14" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G14" s="44">
         <v>1049.96</v>
@@ -29281,11 +29281,11 @@
       </c>
       <c r="K14" s="44">
         <f t="shared" si="1"/>
-        <v>1037.4</v>
+        <v>1217</v>
       </c>
       <c r="L14" s="46">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="M14" s="47">
         <f t="shared" si="3"/>
@@ -29293,11 +29293,11 @@
       </c>
       <c r="N14" s="45">
         <f t="shared" si="4"/>
-        <v>0.8591905935</v>
+        <v>1.003765185</v>
       </c>
       <c r="O14" s="48">
         <f t="shared" si="5"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="P14" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29321,11 +29321,11 @@
       </c>
       <c r="U14" s="44">
         <f t="shared" si="11"/>
-        <v>1037.4</v>
+        <v>1217</v>
       </c>
       <c r="V14" s="51">
         <f t="shared" si="12"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="W14" s="51">
         <f t="shared" si="13"/>
@@ -29333,11 +29333,11 @@
       </c>
       <c r="X14" s="52">
         <f t="shared" si="14"/>
-        <v>0.8591905935</v>
+        <v>1.003765185</v>
       </c>
       <c r="Y14" s="51">
         <f t="shared" si="15"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="F15" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G15" s="44">
         <v>524.96</v>
@@ -29387,11 +29387,11 @@
       </c>
       <c r="K15" s="44">
         <f t="shared" si="1"/>
-        <v>518.7</v>
+        <v>608.5</v>
       </c>
       <c r="L15" s="46">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="M15" s="47">
         <f t="shared" si="3"/>
@@ -29399,11 +29399,11 @@
       </c>
       <c r="N15" s="45">
         <f t="shared" si="4"/>
-        <v>0.4295952967</v>
+        <v>0.5018825925</v>
       </c>
       <c r="O15" s="48">
         <f t="shared" si="5"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="P15" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29427,11 +29427,11 @@
       </c>
       <c r="U15" s="44">
         <f t="shared" si="11"/>
-        <v>518.7</v>
+        <v>608.5</v>
       </c>
       <c r="V15" s="51">
         <f t="shared" si="12"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="W15" s="51">
         <f t="shared" si="13"/>
@@ -29439,11 +29439,11 @@
       </c>
       <c r="X15" s="52">
         <f t="shared" si="14"/>
-        <v>0.4295952967</v>
+        <v>0.5018825925</v>
       </c>
       <c r="Y15" s="51">
         <f t="shared" si="15"/>
-        <v>259.35</v>
+        <v>304.25</v>
       </c>
       <c r="Z15" s="44"/>
       <c r="AA15" s="44"/>
@@ -29477,7 +29477,7 @@
       </c>
       <c r="F16" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G16" s="44">
         <v>280.98</v>
@@ -29493,11 +29493,11 @@
       </c>
       <c r="K16" s="44">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="L16" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M16" s="47">
         <f t="shared" si="3"/>
@@ -29505,11 +29505,11 @@
       </c>
       <c r="N16" s="45">
         <f t="shared" si="4"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="O16" s="48">
         <f t="shared" si="5"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="P16" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29533,11 +29533,11 @@
       </c>
       <c r="U16" s="44">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="V16" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W16" s="51">
         <f t="shared" si="13"/>
@@ -29545,11 +29545,11 @@
       </c>
       <c r="X16" s="52">
         <f t="shared" si="14"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="Y16" s="51">
         <f t="shared" si="15"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="Z16" s="44"/>
       <c r="AA16" s="44"/>
@@ -29583,7 +29583,7 @@
       </c>
       <c r="F17" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G17" s="44">
         <v>280.98</v>
@@ -29599,11 +29599,11 @@
       </c>
       <c r="K17" s="44">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="L17" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M17" s="47">
         <f t="shared" si="3"/>
@@ -29611,11 +29611,11 @@
       </c>
       <c r="N17" s="45">
         <f t="shared" si="4"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="O17" s="48">
         <f t="shared" si="5"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="P17" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29639,11 +29639,11 @@
       </c>
       <c r="U17" s="44">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="V17" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W17" s="51">
         <f t="shared" si="13"/>
@@ -29651,11 +29651,11 @@
       </c>
       <c r="X17" s="52">
         <f t="shared" si="14"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="Y17" s="51">
         <f t="shared" si="15"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
@@ -29689,7 +29689,7 @@
       </c>
       <c r="F18" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G18" s="44">
         <v>280.98</v>
@@ -29705,11 +29705,11 @@
       </c>
       <c r="K18" s="44">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="L18" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M18" s="47">
         <f t="shared" si="3"/>
@@ -29717,11 +29717,11 @@
       </c>
       <c r="N18" s="45">
         <f t="shared" si="4"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="O18" s="48">
         <f t="shared" si="5"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="P18" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29745,11 +29745,11 @@
       </c>
       <c r="U18" s="44">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="V18" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W18" s="51">
         <f t="shared" si="13"/>
@@ -29757,11 +29757,11 @@
       </c>
       <c r="X18" s="52">
         <f t="shared" si="14"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="Y18" s="51">
         <f t="shared" si="15"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="F19" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G19" s="44">
         <v>1123.89</v>
@@ -29811,11 +29811,11 @@
       </c>
       <c r="K19" s="44">
         <f t="shared" si="1"/>
-        <v>964.01</v>
+        <v>1143.61</v>
       </c>
       <c r="L19" s="46">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="M19" s="47">
         <f t="shared" si="3"/>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="N19" s="45">
         <f t="shared" si="4"/>
-        <v>0.7815776893</v>
+        <v>0.9234316204</v>
       </c>
       <c r="O19" s="48">
         <f t="shared" si="5"/>
-        <v>241.0025</v>
+        <v>285.9025</v>
       </c>
       <c r="P19" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29851,11 +29851,11 @@
       </c>
       <c r="U19" s="44">
         <f t="shared" si="11"/>
-        <v>964.01</v>
+        <v>1143.61</v>
       </c>
       <c r="V19" s="51">
         <f t="shared" si="12"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="W19" s="51">
         <f t="shared" si="13"/>
@@ -29863,11 +29863,11 @@
       </c>
       <c r="X19" s="52">
         <f t="shared" si="14"/>
-        <v>0.7815776892</v>
+        <v>0.9234316203</v>
       </c>
       <c r="Y19" s="51">
         <f t="shared" si="15"/>
-        <v>241.0025</v>
+        <v>285.9025</v>
       </c>
       <c r="Z19" s="44"/>
       <c r="AA19" s="44"/>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="F20" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G20" s="44">
         <v>280.98</v>
@@ -29917,11 +29917,11 @@
       </c>
       <c r="K20" s="44">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="L20" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M20" s="47">
         <f t="shared" si="3"/>
@@ -29929,11 +29929,11 @@
       </c>
       <c r="N20" s="45">
         <f t="shared" si="4"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="O20" s="48">
         <f t="shared" si="5"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="P20" s="44" t="str">
         <f t="shared" si="6"/>
@@ -29957,11 +29957,11 @@
       </c>
       <c r="U20" s="44">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="V20" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W20" s="51">
         <f t="shared" si="13"/>
@@ -29969,11 +29969,11 @@
       </c>
       <c r="X20" s="52">
         <f t="shared" si="14"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="Y20" s="51">
         <f t="shared" si="15"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
@@ -30007,7 +30007,7 @@
       </c>
       <c r="F21" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G21" s="44">
         <v>280.92</v>
@@ -30023,11 +30023,11 @@
       </c>
       <c r="K21" s="44">
         <f t="shared" si="1"/>
-        <v>241.05</v>
+        <v>285.95</v>
       </c>
       <c r="L21" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M21" s="47">
         <f t="shared" si="3"/>
@@ -30035,11 +30035,11 @@
       </c>
       <c r="N21" s="45">
         <f t="shared" si="4"/>
-        <v>0.1954329333</v>
+        <v>0.23089626</v>
       </c>
       <c r="O21" s="48">
         <f t="shared" si="5"/>
-        <v>241.05</v>
+        <v>285.95</v>
       </c>
       <c r="P21" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30063,11 +30063,11 @@
       </c>
       <c r="U21" s="44">
         <f t="shared" si="11"/>
-        <v>241.05</v>
+        <v>285.95</v>
       </c>
       <c r="V21" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W21" s="51">
         <f t="shared" si="13"/>
@@ -30075,11 +30075,11 @@
       </c>
       <c r="X21" s="52">
         <f t="shared" si="14"/>
-        <v>0.1954329333</v>
+        <v>0.2308962599</v>
       </c>
       <c r="Y21" s="51">
         <f t="shared" si="15"/>
-        <v>241.05</v>
+        <v>285.95</v>
       </c>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
@@ -30113,7 +30113,7 @@
       </c>
       <c r="F22" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G22" s="44">
         <v>280.98</v>
@@ -30129,11 +30129,11 @@
       </c>
       <c r="K22" s="44">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M22" s="47">
         <f t="shared" si="3"/>
@@ -30141,11 +30141,11 @@
       </c>
       <c r="N22" s="45">
         <f t="shared" si="4"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="O22" s="48">
         <f t="shared" si="5"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="P22" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30169,11 +30169,11 @@
       </c>
       <c r="U22" s="44">
         <f t="shared" si="11"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="V22" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W22" s="51">
         <f t="shared" si="13"/>
@@ -30181,11 +30181,11 @@
       </c>
       <c r="X22" s="52">
         <f t="shared" si="14"/>
-        <v>0.1953923954</v>
+        <v>0.2308558864</v>
       </c>
       <c r="Y22" s="51">
         <f t="shared" si="15"/>
-        <v>241</v>
+        <v>285.9</v>
       </c>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
@@ -30219,7 +30219,7 @@
       </c>
       <c r="F23" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G23" s="44">
         <v>260.69</v>
@@ -30235,11 +30235,11 @@
       </c>
       <c r="K23" s="44">
         <f t="shared" si="1"/>
-        <v>261.15</v>
+        <v>306.05</v>
       </c>
       <c r="L23" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M23" s="47">
         <f t="shared" si="3"/>
@@ -30247,11 +30247,11 @@
       </c>
       <c r="N23" s="45">
         <f t="shared" si="4"/>
-        <v>0.1908411655</v>
+        <v>0.2228354522</v>
       </c>
       <c r="O23" s="48">
         <f t="shared" si="5"/>
-        <v>261.15</v>
+        <v>306.05</v>
       </c>
       <c r="P23" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30275,11 +30275,11 @@
       </c>
       <c r="U23" s="44">
         <f t="shared" si="11"/>
-        <v>261.15</v>
+        <v>306.05</v>
       </c>
       <c r="V23" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W23" s="51">
         <f t="shared" si="13"/>
@@ -30287,11 +30287,11 @@
       </c>
       <c r="X23" s="52">
         <f t="shared" si="14"/>
-        <v>0.1908411655</v>
+        <v>0.2228354522</v>
       </c>
       <c r="Y23" s="51">
         <f t="shared" si="15"/>
-        <v>261.15</v>
+        <v>306.05</v>
       </c>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
@@ -30325,7 +30325,7 @@
       </c>
       <c r="F24" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G24" s="44">
         <v>260.59</v>
@@ -30341,11 +30341,11 @@
       </c>
       <c r="K24" s="44">
         <f t="shared" si="1"/>
-        <v>261.25</v>
+        <v>306.15</v>
       </c>
       <c r="L24" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M24" s="47">
         <f t="shared" si="3"/>
@@ -30353,11 +30353,11 @@
       </c>
       <c r="N24" s="45">
         <f t="shared" si="4"/>
-        <v>0.1909142427</v>
+        <v>0.2229082624</v>
       </c>
       <c r="O24" s="48">
         <f t="shared" si="5"/>
-        <v>261.25</v>
+        <v>306.15</v>
       </c>
       <c r="P24" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30381,11 +30381,11 @@
       </c>
       <c r="U24" s="44">
         <f t="shared" si="11"/>
-        <v>261.25</v>
+        <v>306.15</v>
       </c>
       <c r="V24" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W24" s="51">
         <f t="shared" si="13"/>
@@ -30393,11 +30393,11 @@
       </c>
       <c r="X24" s="52">
         <f t="shared" si="14"/>
-        <v>0.1909142427</v>
+        <v>0.2229082624</v>
       </c>
       <c r="Y24" s="51">
         <f t="shared" si="15"/>
-        <v>261.25</v>
+        <v>306.15</v>
       </c>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
@@ -30431,7 +30431,7 @@
       </c>
       <c r="F25" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G25" s="44">
         <v>781.89</v>
@@ -30447,11 +30447,11 @@
       </c>
       <c r="K25" s="44">
         <f t="shared" si="1"/>
-        <v>783.6</v>
+        <v>918.3</v>
       </c>
       <c r="L25" s="46">
         <f t="shared" si="2"/>
-        <v>1560</v>
+        <v>1694.7</v>
       </c>
       <c r="M25" s="47">
         <f t="shared" si="3"/>
@@ -30459,11 +30459,11 @@
       </c>
       <c r="N25" s="45">
         <f t="shared" si="4"/>
-        <v>0.5726331123</v>
+        <v>0.668615572</v>
       </c>
       <c r="O25" s="48">
         <f t="shared" si="5"/>
-        <v>261.2</v>
+        <v>306.1</v>
       </c>
       <c r="P25" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30487,11 +30487,11 @@
       </c>
       <c r="U25" s="44">
         <f t="shared" si="11"/>
-        <v>783.6</v>
+        <v>918.3</v>
       </c>
       <c r="V25" s="51">
         <f t="shared" si="12"/>
-        <v>1560</v>
+        <v>1694.7</v>
       </c>
       <c r="W25" s="51">
         <f t="shared" si="13"/>
@@ -30499,11 +30499,11 @@
       </c>
       <c r="X25" s="52">
         <f t="shared" si="14"/>
-        <v>0.5726331123</v>
+        <v>0.6686155719</v>
       </c>
       <c r="Y25" s="51">
         <f t="shared" si="15"/>
-        <v>261.2</v>
+        <v>306.1</v>
       </c>
       <c r="Z25" s="44"/>
       <c r="AA25" s="44"/>
@@ -30537,7 +30537,7 @@
       </c>
       <c r="F26" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G26" s="44">
         <v>11730.53</v>
@@ -30553,11 +30553,11 @@
       </c>
       <c r="K26" s="44">
         <f t="shared" si="1"/>
-        <v>11751.67998</v>
+        <v>13772.17998</v>
       </c>
       <c r="L26" s="46">
         <f t="shared" si="2"/>
-        <v>23400</v>
+        <v>25420.5</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="3"/>
@@ -30565,11 +30565,11 @@
       </c>
       <c r="N26" s="45">
         <f t="shared" si="4"/>
-        <v>8.587801278</v>
+        <v>10.02754437</v>
       </c>
       <c r="O26" s="48">
         <f t="shared" si="5"/>
-        <v>261.148444</v>
+        <v>306.048444</v>
       </c>
       <c r="P26" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30593,11 +30593,11 @@
       </c>
       <c r="U26" s="44">
         <f t="shared" si="11"/>
-        <v>11751.67998</v>
+        <v>13772.17998</v>
       </c>
       <c r="V26" s="51">
         <f t="shared" si="12"/>
-        <v>23400</v>
+        <v>25420.5</v>
       </c>
       <c r="W26" s="51">
         <f t="shared" si="13"/>
@@ -30605,11 +30605,11 @@
       </c>
       <c r="X26" s="52">
         <f t="shared" si="14"/>
-        <v>8.587801278</v>
+        <v>10.02754437</v>
       </c>
       <c r="Y26" s="51">
         <f t="shared" si="15"/>
-        <v>261.148444</v>
+        <v>306.048444</v>
       </c>
       <c r="Z26" s="44"/>
       <c r="AA26" s="44"/>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="F27" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G27" s="44">
         <v>1561.13</v>
@@ -30659,11 +30659,11 @@
       </c>
       <c r="K27" s="44">
         <f t="shared" si="1"/>
-        <v>1049.98</v>
+        <v>1274.48</v>
       </c>
       <c r="L27" s="46">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2824.5</v>
       </c>
       <c r="M27" s="47">
         <f t="shared" si="3"/>
@@ -30671,11 +30671,11 @@
       </c>
       <c r="N27" s="45">
         <f t="shared" si="4"/>
-        <v>0.7335256843</v>
+        <v>0.8872521466</v>
       </c>
       <c r="O27" s="48">
         <f t="shared" si="5"/>
-        <v>209.996</v>
+        <v>254.896</v>
       </c>
       <c r="P27" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30699,11 +30699,11 @@
       </c>
       <c r="U27" s="44">
         <f t="shared" si="11"/>
-        <v>1049.98</v>
+        <v>1274.48</v>
       </c>
       <c r="V27" s="51">
         <f t="shared" si="12"/>
-        <v>2600</v>
+        <v>2824.5</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="13"/>
@@ -30711,11 +30711,11 @@
       </c>
       <c r="X27" s="52">
         <f t="shared" si="14"/>
-        <v>0.7335256843</v>
+        <v>0.8872521466</v>
       </c>
       <c r="Y27" s="51">
         <f t="shared" si="15"/>
-        <v>209.996</v>
+        <v>254.896</v>
       </c>
       <c r="Z27" s="44"/>
       <c r="AA27" s="44"/>
@@ -30749,7 +30749,7 @@
       </c>
       <c r="F28" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G28" s="44">
         <v>1561.13</v>
@@ -30765,11 +30765,11 @@
       </c>
       <c r="K28" s="44">
         <f t="shared" si="1"/>
-        <v>1049.98</v>
+        <v>1274.48</v>
       </c>
       <c r="L28" s="46">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2824.5</v>
       </c>
       <c r="M28" s="47">
         <f t="shared" si="3"/>
@@ -30777,11 +30777,11 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="4"/>
-        <v>0.7335256843</v>
+        <v>0.8872521466</v>
       </c>
       <c r="O28" s="48">
         <f t="shared" si="5"/>
-        <v>209.996</v>
+        <v>254.896</v>
       </c>
       <c r="P28" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30805,11 +30805,11 @@
       </c>
       <c r="U28" s="44">
         <f t="shared" si="11"/>
-        <v>1049.98</v>
+        <v>1274.48</v>
       </c>
       <c r="V28" s="51">
         <f t="shared" si="12"/>
-        <v>2600</v>
+        <v>2824.5</v>
       </c>
       <c r="W28" s="51">
         <f t="shared" si="13"/>
@@ -30817,11 +30817,11 @@
       </c>
       <c r="X28" s="52">
         <f t="shared" si="14"/>
-        <v>0.7335256843</v>
+        <v>0.8872521466</v>
       </c>
       <c r="Y28" s="51">
         <f t="shared" si="15"/>
-        <v>209.996</v>
+        <v>254.896</v>
       </c>
       <c r="Z28" s="44"/>
       <c r="AA28" s="44"/>
@@ -30855,7 +30855,7 @@
       </c>
       <c r="F29" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G29" s="44">
         <v>931.88</v>
@@ -30871,11 +30871,11 @@
       </c>
       <c r="K29" s="44">
         <f t="shared" si="1"/>
-        <v>114.7</v>
+        <v>204.5</v>
       </c>
       <c r="L29" s="46">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="M29" s="47">
         <f t="shared" si="3"/>
@@ -30883,11 +30883,11 @@
       </c>
       <c r="N29" s="45">
         <f t="shared" si="4"/>
-        <v>0.07100340644</v>
+        <v>0.126200684</v>
       </c>
       <c r="O29" s="48">
         <f t="shared" si="5"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="P29" s="44" t="str">
         <f t="shared" si="6"/>
@@ -30911,11 +30911,11 @@
       </c>
       <c r="U29" s="44">
         <f t="shared" si="11"/>
-        <v>114.7</v>
+        <v>204.5</v>
       </c>
       <c r="V29" s="51">
         <f t="shared" si="12"/>
-        <v>1040</v>
+        <v>1129.8</v>
       </c>
       <c r="W29" s="51">
         <f t="shared" si="13"/>
@@ -30923,11 +30923,11 @@
       </c>
       <c r="X29" s="52">
         <f t="shared" si="14"/>
-        <v>0.07100340643</v>
+        <v>0.1262006839</v>
       </c>
       <c r="Y29" s="51">
         <f t="shared" si="15"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="Z29" s="44"/>
       <c r="AA29" s="44"/>
@@ -30961,7 +30961,7 @@
       </c>
       <c r="F30" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G30" s="44">
         <v>11183.61</v>
@@ -30977,11 +30977,11 @@
       </c>
       <c r="K30" s="44">
         <f t="shared" si="1"/>
-        <v>1375.29</v>
+        <v>2452.89</v>
       </c>
       <c r="L30" s="46">
         <f t="shared" si="2"/>
-        <v>12480</v>
+        <v>13557.6</v>
       </c>
       <c r="M30" s="47">
         <f t="shared" si="3"/>
@@ -30989,11 +30989,11 @@
       </c>
       <c r="N30" s="45">
         <f t="shared" si="4"/>
-        <v>0.8513537475</v>
+        <v>1.513723206</v>
       </c>
       <c r="O30" s="48">
         <f t="shared" si="5"/>
-        <v>57.30375</v>
+        <v>102.20375</v>
       </c>
       <c r="P30" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31017,11 +31017,11 @@
       </c>
       <c r="U30" s="44">
         <f t="shared" si="11"/>
-        <v>1375.29</v>
+        <v>2452.89</v>
       </c>
       <c r="V30" s="51">
         <f t="shared" si="12"/>
-        <v>12480</v>
+        <v>13557.6</v>
       </c>
       <c r="W30" s="51">
         <f t="shared" si="13"/>
@@ -31029,11 +31029,11 @@
       </c>
       <c r="X30" s="52">
         <f t="shared" si="14"/>
-        <v>0.8513537474</v>
+        <v>1.513723206</v>
       </c>
       <c r="Y30" s="51">
         <f t="shared" si="15"/>
-        <v>57.30375</v>
+        <v>102.20375</v>
       </c>
       <c r="Z30" s="44"/>
       <c r="AA30" s="44"/>
@@ -31067,7 +31067,7 @@
       </c>
       <c r="F31" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G31" s="44">
         <v>465.93</v>
@@ -31083,11 +31083,11 @@
       </c>
       <c r="K31" s="44">
         <f t="shared" si="1"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="L31" s="46">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="M31" s="47">
         <f t="shared" si="3"/>
@@ -31095,11 +31095,11 @@
       </c>
       <c r="N31" s="45">
         <f t="shared" si="4"/>
-        <v>0.03550170322</v>
+        <v>0.06310034198</v>
       </c>
       <c r="O31" s="48">
         <f t="shared" si="5"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="P31" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31123,11 +31123,11 @@
       </c>
       <c r="U31" s="44">
         <f t="shared" si="11"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="V31" s="51">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="W31" s="51">
         <f t="shared" si="13"/>
@@ -31135,11 +31135,11 @@
       </c>
       <c r="X31" s="52">
         <f t="shared" si="14"/>
-        <v>0.03550170322</v>
+        <v>0.06310034197</v>
       </c>
       <c r="Y31" s="51">
         <f t="shared" si="15"/>
-        <v>57.35</v>
+        <v>102.25</v>
       </c>
       <c r="Z31" s="44"/>
       <c r="AA31" s="44"/>
@@ -31173,7 +31173,7 @@
       </c>
       <c r="F32" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G32" s="44">
         <v>6057.15</v>
@@ -31189,11 +31189,11 @@
       </c>
       <c r="K32" s="44">
         <f t="shared" si="1"/>
-        <v>745.609995</v>
+        <v>1329.309995</v>
       </c>
       <c r="L32" s="46">
         <f t="shared" si="2"/>
-        <v>6760</v>
+        <v>7343.7</v>
       </c>
       <c r="M32" s="47">
         <f t="shared" si="3"/>
@@ -31201,11 +31201,11 @@
       </c>
       <c r="N32" s="45">
         <f t="shared" si="4"/>
-        <v>0.4615592809</v>
+        <v>0.8203414697</v>
       </c>
       <c r="O32" s="48">
         <f t="shared" si="5"/>
-        <v>57.354615</v>
+        <v>102.254615</v>
       </c>
       <c r="P32" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31229,11 +31229,11 @@
       </c>
       <c r="U32" s="44">
         <f t="shared" si="11"/>
-        <v>745.609995</v>
+        <v>1329.309995</v>
       </c>
       <c r="V32" s="51">
         <f t="shared" si="12"/>
-        <v>6760</v>
+        <v>7343.7</v>
       </c>
       <c r="W32" s="51">
         <f t="shared" si="13"/>
@@ -31241,11 +31241,11 @@
       </c>
       <c r="X32" s="52">
         <f t="shared" si="14"/>
-        <v>0.4615592809</v>
+        <v>0.8203414697</v>
       </c>
       <c r="Y32" s="51">
         <f t="shared" si="15"/>
-        <v>57.354615</v>
+        <v>102.254615</v>
       </c>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="F33" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G33" s="44">
         <v>1911.81</v>
@@ -31295,11 +31295,11 @@
       </c>
       <c r="K33" s="44">
         <f t="shared" si="1"/>
-        <v>181.61</v>
+        <v>361.21</v>
       </c>
       <c r="L33" s="46">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="M33" s="47">
         <f t="shared" si="3"/>
@@ -31307,11 +31307,11 @@
       </c>
       <c r="N33" s="45">
         <f t="shared" si="4"/>
-        <v>0.1106423116</v>
+        <v>0.2193891707</v>
       </c>
       <c r="O33" s="48">
         <f t="shared" si="5"/>
-        <v>45.4025</v>
+        <v>90.3025</v>
       </c>
       <c r="P33" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="U33" s="44">
         <f t="shared" si="11"/>
-        <v>181.61</v>
+        <v>361.21</v>
       </c>
       <c r="V33" s="51">
         <f t="shared" si="12"/>
-        <v>2080</v>
+        <v>2259.6</v>
       </c>
       <c r="W33" s="51">
         <f t="shared" si="13"/>
@@ -31347,11 +31347,11 @@
       </c>
       <c r="X33" s="52">
         <f t="shared" si="14"/>
-        <v>0.1106423116</v>
+        <v>0.2193891707</v>
       </c>
       <c r="Y33" s="51">
         <f t="shared" si="15"/>
-        <v>45.4025</v>
+        <v>90.3025</v>
       </c>
       <c r="Z33" s="44"/>
       <c r="AA33" s="44"/>
@@ -31385,7 +31385,7 @@
       </c>
       <c r="F34" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G34" s="44">
         <v>2867.76</v>
@@ -31401,11 +31401,11 @@
       </c>
       <c r="K34" s="44">
         <f t="shared" si="1"/>
-        <v>272.4</v>
+        <v>541.8</v>
       </c>
       <c r="L34" s="46">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>3389.4</v>
       </c>
       <c r="M34" s="47">
         <f t="shared" si="3"/>
@@ -31413,11 +31413,11 @@
       </c>
       <c r="N34" s="45">
         <f t="shared" si="4"/>
-        <v>0.1659543289</v>
+        <v>0.3290746454</v>
       </c>
       <c r="O34" s="48">
         <f t="shared" si="5"/>
-        <v>45.4</v>
+        <v>90.3</v>
       </c>
       <c r="P34" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31441,11 +31441,11 @@
       </c>
       <c r="U34" s="44">
         <f t="shared" si="11"/>
-        <v>272.4</v>
+        <v>541.8</v>
       </c>
       <c r="V34" s="51">
         <f t="shared" si="12"/>
-        <v>3120</v>
+        <v>3389.4</v>
       </c>
       <c r="W34" s="51">
         <f t="shared" si="13"/>
@@ -31453,11 +31453,11 @@
       </c>
       <c r="X34" s="52">
         <f t="shared" si="14"/>
-        <v>0.1659543289</v>
+        <v>0.3290746454</v>
       </c>
       <c r="Y34" s="51">
         <f t="shared" si="15"/>
-        <v>45.4</v>
+        <v>90.3</v>
       </c>
       <c r="Z34" s="44"/>
       <c r="AA34" s="44"/>
@@ -31491,7 +31491,7 @@
       </c>
       <c r="F35" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G35" s="44">
         <v>5013.9</v>
@@ -31507,11 +31507,11 @@
       </c>
       <c r="K35" s="44">
         <f t="shared" si="1"/>
-        <v>221.5</v>
+        <v>670.5</v>
       </c>
       <c r="L35" s="46">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="M35" s="47">
         <f t="shared" si="3"/>
@@ -31519,11 +31519,11 @@
       </c>
       <c r="N35" s="45">
         <f t="shared" si="4"/>
-        <v>0.1348623453</v>
+        <v>0.406996341</v>
       </c>
       <c r="O35" s="48">
         <f t="shared" si="5"/>
-        <v>22.15</v>
+        <v>67.05</v>
       </c>
       <c r="P35" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31547,11 +31547,11 @@
       </c>
       <c r="U35" s="44">
         <f t="shared" si="11"/>
-        <v>221.5</v>
+        <v>670.5</v>
       </c>
       <c r="V35" s="51">
         <f t="shared" si="12"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="W35" s="51">
         <f t="shared" si="13"/>
@@ -31559,11 +31559,11 @@
       </c>
       <c r="X35" s="52">
         <f t="shared" si="14"/>
-        <v>0.1348623453</v>
+        <v>0.406996341</v>
       </c>
       <c r="Y35" s="51">
         <f t="shared" si="15"/>
-        <v>22.15</v>
+        <v>67.05</v>
       </c>
       <c r="Z35" s="44"/>
       <c r="AA35" s="44"/>
@@ -31597,7 +31597,7 @@
       </c>
       <c r="F36" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G36" s="44">
         <v>5014.42</v>
@@ -31613,11 +31613,11 @@
       </c>
       <c r="K36" s="44">
         <f t="shared" si="1"/>
-        <v>221.02</v>
+        <v>670.02</v>
       </c>
       <c r="L36" s="46">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="M36" s="47">
         <f t="shared" si="3"/>
@@ -31625,11 +31625,11 @@
       </c>
       <c r="N36" s="45">
         <f t="shared" si="4"/>
-        <v>0.1345700928</v>
+        <v>0.406704979</v>
       </c>
       <c r="O36" s="48">
         <f t="shared" si="5"/>
-        <v>22.102</v>
+        <v>67.002</v>
       </c>
       <c r="P36" s="44" t="str">
         <f t="shared" si="6"/>
@@ -31653,11 +31653,11 @@
       </c>
       <c r="U36" s="44">
         <f t="shared" si="11"/>
-        <v>221.02</v>
+        <v>670.02</v>
       </c>
       <c r="V36" s="51">
         <f t="shared" si="12"/>
-        <v>5200</v>
+        <v>5649</v>
       </c>
       <c r="W36" s="51">
         <f t="shared" si="13"/>
@@ -31665,11 +31665,11 @@
       </c>
       <c r="X36" s="52">
         <f t="shared" si="14"/>
-        <v>0.1345700928</v>
+        <v>0.406704979</v>
       </c>
       <c r="Y36" s="51">
         <f t="shared" si="15"/>
-        <v>22.102</v>
+        <v>67.002</v>
       </c>
       <c r="Z36" s="44"/>
       <c r="AA36" s="44"/>
@@ -31703,7 +31703,7 @@
       </c>
       <c r="F37" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G37" s="44">
         <v>19813.67</v>
@@ -31806,7 +31806,7 @@
       </c>
       <c r="F38" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G38" s="44">
         <v>16717.8</v>
@@ -31909,7 +31909,7 @@
       </c>
       <c r="F39" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G39" s="44">
         <v>25386.3</v>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="F40" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G40" s="44">
         <v>59555.97</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="F41" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G41" s="44">
         <v>6337.73</v>
@@ -32218,7 +32218,7 @@
       </c>
       <c r="F42" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G42" s="44">
         <v>6337.73</v>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="F43" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G43" s="44">
         <v>2593.02</v>
@@ -32412,7 +32412,7 @@
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43:AE61" si="38">AC43/(NOW()-AA43)</f>
-        <v>0.2921557969</v>
+        <v>0.2912752597</v>
       </c>
       <c r="AF43" s="44" t="str">
         <f t="shared" si="17"/>
@@ -32440,7 +32440,7 @@
       </c>
       <c r="F44" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G44" s="44">
         <v>10370.99</v>
@@ -32531,7 +32531,7 @@
       </c>
       <c r="AE44" s="44">
         <f t="shared" si="38"/>
-        <v>1.169225446</v>
+        <v>1.165701483</v>
       </c>
       <c r="AF44" s="44" t="str">
         <f t="shared" si="17"/>
@@ -32559,7 +32559,7 @@
       </c>
       <c r="F45" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G45" s="44">
         <v>7260.41</v>
@@ -32650,7 +32650,7 @@
       </c>
       <c r="AE45" s="44">
         <f t="shared" si="38"/>
-        <v>0.8180362289</v>
+        <v>0.8155707249</v>
       </c>
       <c r="AF45" s="44" t="str">
         <f t="shared" si="17"/>
@@ -32678,7 +32678,7 @@
       </c>
       <c r="F46" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G46" s="44">
         <v>518.6</v>
@@ -32769,7 +32769,7 @@
       </c>
       <c r="AE46" s="44">
         <f t="shared" si="38"/>
-        <v>0.05843115938</v>
+        <v>0.05825505195</v>
       </c>
       <c r="AF46" s="44" t="str">
         <f t="shared" si="17"/>
@@ -32797,7 +32797,7 @@
       </c>
       <c r="F47" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G47" s="44">
         <v>8845.92</v>
@@ -32888,7 +32888,7 @@
       </c>
       <c r="AE47" s="44">
         <f t="shared" si="38"/>
-        <v>0.9754125027</v>
+        <v>0.9724726776</v>
       </c>
       <c r="AF47" s="44" t="str">
         <f t="shared" si="17"/>
@@ -32916,7 +32916,7 @@
       </c>
       <c r="F48" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G48" s="44">
         <v>6764.55</v>
@@ -33007,7 +33007,7 @@
       </c>
       <c r="AE48" s="44">
         <f t="shared" si="38"/>
-        <v>0.7459036817</v>
+        <v>0.7436555802</v>
       </c>
       <c r="AF48" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33035,7 +33035,7 @@
       </c>
       <c r="F49" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G49" s="44">
         <v>6172.57</v>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="AE49" s="44">
         <f t="shared" si="38"/>
-        <v>0.7316723013</v>
+        <v>0.7294670921</v>
       </c>
       <c r="AF49" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33154,7 +33154,7 @@
       </c>
       <c r="F50" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G50" s="44">
         <v>3600.68</v>
@@ -33245,7 +33245,7 @@
       </c>
       <c r="AE50" s="44">
         <f t="shared" si="38"/>
-        <v>0.4268088432</v>
+        <v>0.4255224712</v>
       </c>
       <c r="AF50" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33273,7 +33273,7 @@
       </c>
       <c r="F51" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G51" s="44">
         <v>3600.68</v>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="AE51" s="44">
         <f t="shared" si="38"/>
-        <v>0.4268088432</v>
+        <v>0.4255224712</v>
       </c>
       <c r="AF51" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="F52" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G52" s="44">
         <v>2326.384</v>
@@ -33483,7 +33483,7 @@
       </c>
       <c r="AE52" s="44">
         <f t="shared" si="38"/>
-        <v>0.2264975306</v>
+        <v>0.2258148829</v>
       </c>
       <c r="AF52" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33511,7 +33511,7 @@
       </c>
       <c r="F53" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G53" s="44">
         <v>581.596</v>
@@ -33602,7 +33602,7 @@
       </c>
       <c r="AE53" s="44">
         <f t="shared" si="38"/>
-        <v>0.06525159</v>
+        <v>0.06505504429</v>
       </c>
       <c r="AF53" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33630,7 +33630,7 @@
       </c>
       <c r="F54" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G54" s="44">
         <v>7823.88</v>
@@ -33721,7 +33721,7 @@
       </c>
       <c r="AE54" s="44">
         <f t="shared" si="38"/>
-        <v>0.9788641345</v>
+        <v>0.9759156768</v>
       </c>
       <c r="AF54" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33749,7 +33749,7 @@
       </c>
       <c r="F55" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G55" s="44">
         <v>11256.23</v>
@@ -33840,7 +33840,7 @@
       </c>
       <c r="AE55" s="44">
         <f t="shared" si="38"/>
-        <v>1.946551048</v>
+        <v>1.9406878</v>
       </c>
       <c r="AF55" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33868,7 +33868,7 @@
       </c>
       <c r="F56" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G56" s="44">
         <v>9062.19</v>
@@ -33959,7 +33959,7 @@
       </c>
       <c r="AE56" s="44">
         <f t="shared" si="38"/>
-        <v>1.371168178</v>
+        <v>1.367038053</v>
       </c>
       <c r="AF56" s="44" t="str">
         <f t="shared" si="17"/>
@@ -33987,7 +33987,7 @@
       </c>
       <c r="F57" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G57" s="44">
         <v>7597.67</v>
@@ -34078,7 +34078,7 @@
       </c>
       <c r="AE57" s="44">
         <f t="shared" si="38"/>
-        <v>1.1150131</v>
+        <v>1.111654545</v>
       </c>
       <c r="AF57" s="44" t="str">
         <f t="shared" si="17"/>
@@ -34106,7 +34106,7 @@
       </c>
       <c r="F58" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G58" s="44">
         <v>2532.57</v>
@@ -34197,7 +34197,7 @@
       </c>
       <c r="AE58" s="44">
         <f t="shared" si="38"/>
-        <v>0.3716710343</v>
+        <v>0.370551516</v>
       </c>
       <c r="AF58" s="44" t="str">
         <f t="shared" si="17"/>
@@ -34225,7 +34225,7 @@
       </c>
       <c r="F59" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G59" s="44">
         <v>10145.0</v>
@@ -34316,7 +34316,7 @@
       </c>
       <c r="AE59" s="44">
         <f t="shared" si="38"/>
-        <v>1.47777607</v>
+        <v>1.473324829</v>
       </c>
       <c r="AF59" s="44" t="str">
         <f t="shared" si="17"/>
@@ -34344,7 +34344,7 @@
       </c>
       <c r="F60" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G60" s="44">
         <v>7037.51</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="AE60" s="44">
         <f t="shared" si="38"/>
-        <v>1.45213528</v>
+        <v>1.447761272</v>
       </c>
       <c r="AF60" s="44" t="str">
         <f t="shared" si="17"/>
@@ -34463,7 +34463,7 @@
       </c>
       <c r="F61" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G61" s="44">
         <v>938.49</v>
@@ -34554,7 +34554,7 @@
       </c>
       <c r="AE61" s="44">
         <f t="shared" si="38"/>
-        <v>0.1935217343</v>
+        <v>0.1929388233</v>
       </c>
       <c r="AF61" s="44" t="str">
         <f t="shared" si="17"/>
@@ -34582,7 +34582,7 @@
       </c>
       <c r="F62" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G62" s="44">
         <v>6569.7</v>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="F63" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G63" s="44">
         <v>20884.35</v>
@@ -34788,7 +34788,7 @@
       </c>
       <c r="F64" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G64" s="44">
         <v>18076.51</v>
@@ -34891,7 +34891,7 @@
       </c>
       <c r="F65" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G65" s="44">
         <v>5991.25</v>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="AE65" s="44">
         <f t="shared" ref="AE65:AE71" si="86">AC65/(NOW()-AA65)</f>
-        <v>0.2908133154</v>
+        <v>0.2900184391</v>
       </c>
       <c r="AF65" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="F66" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G66" s="44">
         <v>4671.18</v>
@@ -35101,7 +35101,7 @@
       </c>
       <c r="AE66" s="44">
         <f t="shared" si="86"/>
-        <v>1.215344404</v>
+        <v>1.212045869</v>
       </c>
       <c r="AF66" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35129,7 +35129,7 @@
       </c>
       <c r="F67" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G67" s="44">
         <v>4651.18</v>
@@ -35220,7 +35220,7 @@
       </c>
       <c r="AE67" s="44">
         <f t="shared" si="86"/>
-        <v>1.226187948</v>
+        <v>1.222859982</v>
       </c>
       <c r="AF67" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35248,7 +35248,7 @@
       </c>
       <c r="F68" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G68" s="44">
         <v>4570.28</v>
@@ -35339,7 +35339,7 @@
       </c>
       <c r="AE68" s="44">
         <f t="shared" si="86"/>
-        <v>1.270050083</v>
+        <v>1.266603072</v>
       </c>
       <c r="AF68" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35367,7 +35367,7 @@
       </c>
       <c r="F69" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G69" s="44">
         <v>2275.11</v>
@@ -35458,7 +35458,7 @@
       </c>
       <c r="AE69" s="44">
         <f t="shared" si="86"/>
-        <v>0.710538522</v>
+        <v>0.708617339</v>
       </c>
       <c r="AF69" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35486,7 +35486,7 @@
       </c>
       <c r="F70" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G70" s="44">
         <v>4488.7</v>
@@ -35577,7 +35577,7 @@
       </c>
       <c r="AE70" s="44">
         <f t="shared" si="86"/>
-        <v>1.454294872</v>
+        <v>1.45036269</v>
       </c>
       <c r="AF70" s="44" t="str">
         <f t="shared" si="17"/>
@@ -35605,7 +35605,7 @@
       </c>
       <c r="F71" s="44">
         <f>Index!$C$2</f>
-        <v>520</v>
+        <v>564.9</v>
       </c>
       <c r="G71" s="44">
         <v>4724.14</v>
@@ -35696,7 +35696,7 @@
       </c>
       <c r="AE71" s="44">
         <f t="shared" si="86"/>
-        <v>1.327148909</v>
+        <v>1.32356051</v>
       </c>
       <c r="AF71" s="44" t="str">
         <f t="shared" si="17"/>
@@ -51724,7 +51724,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AG$71"/>
   <customSheetViews>
-    <customSheetView guid="{5B06EF92-5423-40C9-AEE3-B56B76232BF0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A1F099E8-41C3-4654-B984-91E89119870D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AR$150"/>
     </customSheetView>
   </customSheetViews>
